--- a/outputs-HGR-r202/g__Lactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Lactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,198 +552,198 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43936.fa</t>
+          <t>even_MAG-GUT32654.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03288923090038067</v>
+        <v>0.02953579818300722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007846906507575538</v>
+        <v>0.006832074997357923</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4130429759803551</v>
+        <v>2.220459655160871e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09982742461465116</v>
+        <v>0.1231620306095367</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03800466795487113</v>
+        <v>0.03667914815280347</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0949209285889418</v>
+        <v>0.09303157076052392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2029084775191825</v>
+        <v>0.6227453369661283</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05221613184268542</v>
+        <v>0.04233794602471314</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007996559639689461</v>
+        <v>0.0009397491220449187</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0503466964516674</v>
+        <v>0.04473634518386215</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4130429759803551</v>
+        <v>0.6227453369661283</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus johnsonii</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus johnsonii</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59278.fa</t>
+          <t>even_MAG-GUT43936.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03199681942962962</v>
+        <v>0.03288923090038067</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005498093091074251</v>
+        <v>0.007846906507575538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07697928624781122</v>
+        <v>0.4130429759803551</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08863842967731743</v>
+        <v>0.09982742461465116</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03863861069828026</v>
+        <v>0.03800466795487113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1145582228023509</v>
+        <v>0.0949209285889418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5396053304897803</v>
+        <v>0.2029084775191825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04871183326254139</v>
+        <v>0.05221613184268542</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005468931723123727</v>
+        <v>0.007996559639689461</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04990444257809073</v>
+        <v>0.0503466964516674</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5396053304897803</v>
+        <v>0.4130429759803551</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>s__Lactobacillus johnsonii</t>
+          <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>s__Lactobacillus johnsonii(reject)</t>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62924.fa</t>
+          <t>even_MAG-GUT59278.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03336342698999532</v>
+        <v>0.03199681942962962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007436394359026218</v>
+        <v>0.005498093091074251</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2049365321408328</v>
+        <v>0.07697928624781122</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1075642976081867</v>
+        <v>0.08863842967731743</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03930195726074259</v>
+        <v>0.03863861069828026</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0983583445756808</v>
+        <v>0.1145582228023509</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4014003295477712</v>
+        <v>0.5396053304897803</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0518912808396584</v>
+        <v>0.04871183326254139</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007567959800264468</v>
+        <v>0.005468931723123727</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04817947687784159</v>
+        <v>0.04990444257809073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4014003295477712</v>
+        <v>0.5396053304897803</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus johnsonii</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus johnsonii</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62939.fa</t>
+          <t>even_MAG-GUT62924.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03322436376146898</v>
+        <v>0.03336342698999532</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009122199127147897</v>
+        <v>0.007436394359026218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2821624556921159</v>
+        <v>0.2049365321408328</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08078248107148132</v>
+        <v>0.1075642976081867</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03901444173241517</v>
+        <v>0.03930195726074259</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09535888274181285</v>
+        <v>0.0983583445756808</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3522697564783503</v>
+        <v>0.4014003295477712</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0493288358217943</v>
+        <v>0.0518912808396584</v>
       </c>
       <c r="J6" t="n">
-        <v>0.008077728772928483</v>
+        <v>0.007567959800264468</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05065885480048456</v>
+        <v>0.04817947687784159</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3522697564783503</v>
+        <v>0.4014003295477712</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -752,48 +752,48 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63100.fa</t>
+          <t>even_MAG-GUT62939.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03261553768616838</v>
+        <v>0.03322436376146898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009587062615817529</v>
+        <v>0.009122199127147897</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4944901062499881</v>
+        <v>0.2821624556921159</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1185189778194913</v>
+        <v>0.08078248107148132</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03825819738856699</v>
+        <v>0.03901444173241517</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09658412212939731</v>
+        <v>0.09535888274181285</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1038539463702603</v>
+        <v>0.3522697564783503</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04992612003699406</v>
+        <v>0.0493288358217943</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007989557843693878</v>
+        <v>0.008077728772928483</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04817637185962201</v>
+        <v>0.05065885480048456</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4944901062499881</v>
+        <v>0.3522697564783503</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -802,48 +802,48 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63356.fa</t>
+          <t>even_MAG-GUT63100.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03326759932373354</v>
+        <v>0.03261553768616838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007767898230711007</v>
+        <v>0.009587062615817529</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2783341191559991</v>
+        <v>0.4944901062499881</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09099616256101135</v>
+        <v>0.1185189778194913</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03822590601220886</v>
+        <v>0.03825819738856699</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1022172414889733</v>
+        <v>0.09658412212939731</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3402988214690318</v>
+        <v>0.1038539463702603</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05025091634943638</v>
+        <v>0.04992612003699406</v>
       </c>
       <c r="J8" t="n">
-        <v>0.008006654762465391</v>
+        <v>0.007989557843693878</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05063468064642925</v>
+        <v>0.04817637185962201</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3402988214690318</v>
+        <v>0.4944901062499881</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -852,48 +852,48 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63569.fa</t>
+          <t>even_MAG-GUT63356.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03298393727968331</v>
+        <v>0.03326759932373354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007848506229389521</v>
+        <v>0.007767898230711007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3761941456503436</v>
+        <v>0.2783341191559991</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1065595805370501</v>
+        <v>0.09099616256101135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03809452773467852</v>
+        <v>0.03822590601220886</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09593332311980764</v>
+        <v>0.1022172414889733</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2380886713015475</v>
+        <v>0.3402988214690318</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04916393840632723</v>
+        <v>0.05025091634943638</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007855282013782289</v>
+        <v>0.008006654762465391</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04727808772739026</v>
+        <v>0.05063468064642925</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3761941456503436</v>
+        <v>0.3402988214690318</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -902,48 +902,48 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86747.fa</t>
+          <t>even_MAG-GUT63569.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03304298924204739</v>
+        <v>0.03298393727968331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008521024664289046</v>
+        <v>0.007848506229389521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3455578987036657</v>
+        <v>0.3761941456503436</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0736772879273946</v>
+        <v>0.1065595805370501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03910849647246378</v>
+        <v>0.03809452773467852</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1023493886731263</v>
+        <v>0.09593332311980764</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2866408815215617</v>
+        <v>0.2380886713015475</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05265631078056918</v>
+        <v>0.04916393840632723</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008066250762892435</v>
+        <v>0.007855282013782289</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05037947125199005</v>
+        <v>0.04727808772739026</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3455578987036657</v>
+        <v>0.3761941456503436</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -952,48 +952,48 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86758.fa</t>
+          <t>even_MAG-GUT86747.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0326484476249089</v>
+        <v>0.03304298924204739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009243168151465735</v>
+        <v>0.008521024664289046</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5416657074178695</v>
+        <v>0.3455578987036657</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1161855714338297</v>
+        <v>0.0736772879273946</v>
       </c>
       <c r="F11" t="n">
-        <v>0.038822637316704</v>
+        <v>0.03910849647246378</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1021302191842147</v>
+        <v>0.1023493886731263</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0489111214558846</v>
+        <v>0.2866408815215617</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05266380513980835</v>
+        <v>0.05265631078056918</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008036713361714902</v>
+        <v>0.008066250762892435</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04969260891359974</v>
+        <v>0.05037947125199005</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5416657074178695</v>
+        <v>0.3455578987036657</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1002,57 +1002,107 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>s__Lactobacillus delbrueckii</t>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT86758.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0326484476249089</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.009243168151465735</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5416657074178695</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1161855714338297</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.038822637316704</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1021302191842147</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0489111214558846</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05266380513980835</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.008036713361714902</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.04969260891359974</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5416657074178695</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT88016.fa</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>0.03272958981260349</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>0.008149768228546711</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>0.4758585909407161</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>0.08716254256190745</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>0.03921057050960407</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>0.1029287687463537</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>0.1439289237896433</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>0.05233936295907501</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>0.008021922241162898</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>0.0496699602103871</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>0.4758585909407161</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>s__Lactobacillus delbrueckii</t>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Lactobacillus.xlsx
+++ b/outputs-HGR-r202/g__Lactobacillus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>s__Lactobacillus johnsonii</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus johnsonii</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -680,6 +700,11 @@
           <t>s__Lactobacillus johnsonii</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus johnsonii</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -725,6 +750,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -770,6 +800,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -815,6 +850,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -860,6 +900,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -905,6 +950,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -950,6 +1000,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -995,6 +1050,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1040,6 +1100,11 @@
           <t>s__Lactobacillus delbrueckii</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1081,6 +1146,11 @@
         <v>0.4758585909407161</v>
       </c>
       <c r="M14" t="inlineStr">
+        <is>
+          <t>s__Lactobacillus delbrueckii</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>s__Lactobacillus delbrueckii</t>
         </is>
